--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42624.16</v>
+        <v>515138.69</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42624.16</v>
+        <v>128784.67</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42624.16</v>
+        <v>36158.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>347044.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>124990.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6945.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>515138.69</v>
+        <v>124990.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157392.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128784.67</v>
+        <v>6945.31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6946.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36158.03</v>
+        <v>347044.62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>347109.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347044.62</v>
+        <v>36158.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35692.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124990.73</v>
+        <v>128784.67</v>
+      </c>
+      <c r="C6" t="n">
+        <v>136785.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6945.31</v>
+        <v>515138.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>547141.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,112 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap Wise Capital Growth</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20680847.72</v>
+        <v>20133706.38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17244045.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4136169.54</v>
+        <v>157392.29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134611.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20133706.38</v>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>990698.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157392.29</v>
+        <v>6946.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6938.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6946.92</v>
+        <v>347109.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>347581.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347109.59</v>
+        <v>35692.54</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31152.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35692.54</v>
+        <v>4136169.54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3125838.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20680847.72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18755028.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -504,9 +504,7 @@
       <c r="B6" t="n">
         <v>347109.59</v>
       </c>
-      <c r="C6" t="n">
-        <v>347581.5</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -531,7 +529,7 @@
         <v>4136169.54</v>
       </c>
       <c r="C8" t="n">
-        <v>3125838.07</v>
+        <v>3681489.38</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +542,7 @@
         <v>20680847.72</v>
       </c>
       <c r="C9" t="n">
-        <v>18755028.4</v>
+        <v>18407446.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,41 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20133706.38</v>
+        <v>19061564.1</v>
       </c>
       <c r="C2" t="n">
-        <v>17244045.31</v>
+        <v>9174888.939999999</v>
       </c>
       <c r="D2" t="n">
-        <v>16436565.91</v>
+        <v>8597019.98</v>
       </c>
       <c r="E2" t="n">
-        <v>16946176.71</v>
+        <v>1872386.66</v>
       </c>
       <c r="F2" t="n">
-        <v>17303532.77</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18418272.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20151835.96</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16957905.34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16743003.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18306927.41</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18828707.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19061564.1</v>
-      </c>
+        <v>325298.89</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,41 +495,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157392.29</v>
+        <v>188203.04</v>
       </c>
       <c r="C3" t="n">
-        <v>134611.49</v>
+        <v>149412.44</v>
       </c>
       <c r="D3" t="n">
-        <v>128614.44</v>
+        <v>139939.93</v>
       </c>
       <c r="E3" t="n">
-        <v>132719.44</v>
+        <v>122288.51</v>
       </c>
       <c r="F3" t="n">
-        <v>235274.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250306.36</v>
-      </c>
-      <c r="H3" t="n">
-        <v>273993.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>280364.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>218718</v>
-      </c>
-      <c r="K3" t="n">
-        <v>177490.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>182692.24</v>
-      </c>
-      <c r="M3" t="n">
-        <v>188203.04</v>
-      </c>
+        <v>104756.82</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -587,40 +517,22 @@
           <t>Alpha renta balan global</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3794304.53</v>
+      </c>
       <c r="C4" t="n">
-        <v>990698.95</v>
+        <v>2267991.51</v>
       </c>
       <c r="D4" t="n">
-        <v>2666594.09</v>
+        <v>2119097.45</v>
       </c>
       <c r="E4" t="n">
-        <v>2746362.52</v>
+        <v>1852906.58</v>
       </c>
       <c r="F4" t="n">
-        <v>2813169.58</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2989921.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3267077.83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3349349.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3316974.12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3588377.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3692217.78</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3794304.53</v>
-      </c>
+        <v>1587584.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,158 +541,92 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6946.92</v>
+        <v>6938.58</v>
       </c>
       <c r="C5" t="n">
-        <v>6938.89</v>
+        <v>6938.96</v>
       </c>
       <c r="D5" t="n">
-        <v>6943.33</v>
+        <v>7530.79</v>
       </c>
       <c r="E5" t="n">
-        <v>6956</v>
+        <v>6949</v>
       </c>
       <c r="F5" t="n">
-        <v>6937.02</v>
+        <v>6945.84</v>
       </c>
       <c r="G5" t="n">
-        <v>6934.54</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6944.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6937.57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6952.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6935.93</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6939.56</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6938.58</v>
+        <v>6936.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>347109.59</v>
-      </c>
+          <t>Balanz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>346862.9</v>
+        <v>594210.6</v>
       </c>
       <c r="E6" t="n">
-        <v>347699.54</v>
+        <v>846499.41</v>
       </c>
       <c r="F6" t="n">
-        <v>347469.12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>346777.72</v>
-      </c>
-      <c r="H6" t="n">
-        <v>347143.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>347063.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>347191.82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>346807.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>348073.87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>347050.63</v>
-      </c>
+        <v>724268.4399999999</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35692.54</v>
+        <v>347050.63</v>
       </c>
       <c r="C7" t="n">
-        <v>31152.26</v>
+        <v>346918.21</v>
       </c>
       <c r="D7" t="n">
-        <v>31186.19</v>
+        <v>376307.58</v>
       </c>
       <c r="E7" t="n">
-        <v>31264.57</v>
+        <v>347607.65</v>
       </c>
       <c r="F7" t="n">
-        <v>31061.63</v>
+        <v>346881.72</v>
       </c>
       <c r="G7" t="n">
-        <v>31089.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>30152.58</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19784.96</v>
-      </c>
-      <c r="J7" t="n">
-        <v>19331.89</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19251.02</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9987.32</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10001.33</v>
+        <v>347358.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10001.33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9773.879999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10811.18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9353.440000000001</v>
+      </c>
       <c r="F8" t="n">
-        <v>147805.71</v>
+        <v>9518.18</v>
       </c>
       <c r="G8" t="n">
-        <v>157222.32</v>
-      </c>
-      <c r="H8" t="n">
-        <v>172140.28</v>
-      </c>
-      <c r="I8" t="n">
-        <v>176152.62</v>
-      </c>
-      <c r="J8" t="n">
-        <v>380750.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>412921.77</v>
-      </c>
-      <c r="L8" t="n">
-        <v>282474.35</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>9804.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -789,40 +635,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4136169.54</v>
+        <v>3901343.7</v>
       </c>
       <c r="C9" t="n">
-        <v>3681489.38</v>
+        <v>1992653.99</v>
       </c>
       <c r="D9" t="n">
-        <v>3269461.14</v>
+        <v>1692131.07</v>
       </c>
       <c r="E9" t="n">
-        <v>3368529.8</v>
+        <v>722570.1800000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2983607.26</v>
+        <v>443607.77</v>
       </c>
       <c r="G9" t="n">
-        <v>3171503.56</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3464184.18</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3019651.05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3004703.11</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3265530.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3335870.34</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3901343.7</v>
+        <v>121366.65</v>
       </c>
     </row>
     <row r="10">
@@ -832,40 +660,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20680847.72</v>
+        <v>23408062.21</v>
       </c>
       <c r="C10" t="n">
-        <v>18407446.9</v>
+        <v>11955923.94</v>
       </c>
       <c r="D10" t="n">
-        <v>19616766.86</v>
+        <v>11844917.51</v>
       </c>
       <c r="E10" t="n">
-        <v>20211178.78</v>
+        <v>5057991.25</v>
       </c>
       <c r="F10" t="n">
-        <v>20885250.79</v>
+        <v>3105254.39</v>
       </c>
       <c r="G10" t="n">
-        <v>22200524.92</v>
-      </c>
-      <c r="H10" t="n">
-        <v>24249289.29</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21137557.37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>21032921.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22858712.78</v>
-      </c>
-      <c r="L10" t="n">
-        <v>23351092.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>23408062.21</v>
+        <v>364099.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,21 +502,41 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20133706.38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17244045.31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16436565.91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16946176.71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17303532.77</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18418272.93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20151835.96</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16957905.34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16743003.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18306927.41</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18828707.28</v>
+      </c>
+      <c r="M2" t="n">
         <v>19061564.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>9174888.939999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8597019.98</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1872386.66</v>
-      </c>
-      <c r="F2" t="n">
-        <v>325298.89</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -495,21 +545,41 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>157392.29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134611.49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128614.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>132719.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>235274.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250306.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>273993.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>280364.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>218718</v>
+      </c>
+      <c r="K3" t="n">
+        <v>177490.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>182692.24</v>
+      </c>
+      <c r="M3" t="n">
         <v>188203.04</v>
       </c>
-      <c r="C3" t="n">
-        <v>149412.44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>139939.93</v>
-      </c>
-      <c r="E3" t="n">
-        <v>122288.51</v>
-      </c>
-      <c r="F3" t="n">
-        <v>104756.82</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -517,22 +587,40 @@
           <t>Alpha renta balan global</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>990698.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2666594.09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2746362.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2813169.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2989921.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3267077.83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3349349.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3316974.12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3588377.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3692217.78</v>
+      </c>
+      <c r="M4" t="n">
         <v>3794304.53</v>
       </c>
-      <c r="C4" t="n">
-        <v>2267991.51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2119097.45</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1852906.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1587584.5</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -541,92 +629,158 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>6946.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6938.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6943.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6956</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6937.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6934.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6944.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6937.57</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6952.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6935.93</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6939.56</v>
+      </c>
+      <c r="M5" t="n">
         <v>6938.58</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6938.96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7530.79</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6949</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6945.84</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6936.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Delta Recursos Naturales</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>347109.59</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>594210.6</v>
+        <v>346862.9</v>
       </c>
       <c r="E6" t="n">
-        <v>846499.41</v>
+        <v>347699.54</v>
       </c>
       <c r="F6" t="n">
-        <v>724268.4399999999</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>347469.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>346777.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>347143.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>347063.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>347191.82</v>
+      </c>
+      <c r="K6" t="n">
+        <v>346807.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>348073.87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>347050.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347050.63</v>
+        <v>35692.54</v>
       </c>
       <c r="C7" t="n">
-        <v>346918.21</v>
+        <v>31152.26</v>
       </c>
       <c r="D7" t="n">
-        <v>376307.58</v>
+        <v>31186.19</v>
       </c>
       <c r="E7" t="n">
-        <v>347607.65</v>
+        <v>31264.57</v>
       </c>
       <c r="F7" t="n">
-        <v>346881.72</v>
+        <v>31061.63</v>
       </c>
       <c r="G7" t="n">
-        <v>347358.76</v>
+        <v>31089.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30152.58</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19784.96</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19331.89</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19251.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9987.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10001.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10001.33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9773.879999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10811.18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9353.440000000001</v>
-      </c>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>9518.18</v>
+        <v>147805.71</v>
       </c>
       <c r="G8" t="n">
-        <v>9804.25</v>
-      </c>
+        <v>157222.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>172140.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>176152.62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>380750.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>412921.77</v>
+      </c>
+      <c r="L8" t="n">
+        <v>282474.35</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,22 +789,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4136169.54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3681489.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3269461.14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3368529.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2983607.26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3171503.56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3464184.18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3019651.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3004703.11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3265530.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3335870.34</v>
+      </c>
+      <c r="M9" t="n">
         <v>3901343.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1992653.99</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1692131.07</v>
-      </c>
-      <c r="E9" t="n">
-        <v>722570.1800000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>443607.77</v>
-      </c>
-      <c r="G9" t="n">
-        <v>121366.65</v>
       </c>
     </row>
     <row r="10">
@@ -660,22 +832,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>20680847.72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18407446.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19616766.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20211178.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20885250.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22200524.92</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24249289.29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21137557.37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21032921.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22858712.78</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23351092.4</v>
+      </c>
+      <c r="M10" t="n">
         <v>23408062.21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11955923.94</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11844917.51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5057991.25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3105254.39</v>
-      </c>
-      <c r="G10" t="n">
-        <v>364099.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,41 +572,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20133706.38</v>
+        <v>19061564.1</v>
       </c>
       <c r="C2" t="n">
-        <v>17244045.31</v>
+        <v>9174888.939999999</v>
       </c>
       <c r="D2" t="n">
-        <v>16436565.91</v>
+        <v>8597019.98</v>
       </c>
       <c r="E2" t="n">
-        <v>16946176.71</v>
+        <v>1872386.66</v>
       </c>
       <c r="F2" t="n">
-        <v>17303532.77</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18418272.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20151835.96</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16957905.34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16743003.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18306927.41</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18828707.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19061564.1</v>
-      </c>
+        <v>325298.89</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,41 +615,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157392.29</v>
+        <v>188203.04</v>
       </c>
       <c r="C3" t="n">
-        <v>134611.49</v>
+        <v>149412.44</v>
       </c>
       <c r="D3" t="n">
-        <v>128614.44</v>
+        <v>139939.93</v>
       </c>
       <c r="E3" t="n">
-        <v>132719.44</v>
+        <v>122288.51</v>
       </c>
       <c r="F3" t="n">
-        <v>235274.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250306.36</v>
-      </c>
-      <c r="H3" t="n">
-        <v>273993.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>280364.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>218718</v>
-      </c>
-      <c r="K3" t="n">
-        <v>177490.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>182692.24</v>
-      </c>
-      <c r="M3" t="n">
-        <v>188203.04</v>
-      </c>
+        <v>104756.82</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -587,40 +657,42 @@
           <t>Alpha renta balan global</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3794304.53</v>
+      </c>
       <c r="C4" t="n">
-        <v>990698.95</v>
+        <v>2267991.51</v>
       </c>
       <c r="D4" t="n">
-        <v>2666594.09</v>
+        <v>2119097.45</v>
       </c>
       <c r="E4" t="n">
-        <v>2746362.52</v>
+        <v>1852906.58</v>
       </c>
       <c r="F4" t="n">
-        <v>2813169.58</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2989921.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3267077.83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3349349.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3316974.12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3588377.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3692217.78</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3794304.53</v>
-      </c>
+        <v>1587584.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,158 +701,270 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6946.92</v>
+        <v>6938.58</v>
       </c>
       <c r="C5" t="n">
-        <v>6938.89</v>
+        <v>6938.96</v>
       </c>
       <c r="D5" t="n">
-        <v>6943.33</v>
+        <v>7530.79</v>
       </c>
       <c r="E5" t="n">
-        <v>6956</v>
+        <v>6949</v>
       </c>
       <c r="F5" t="n">
-        <v>6937.02</v>
+        <v>6945.84</v>
       </c>
       <c r="G5" t="n">
-        <v>6934.54</v>
+        <v>6936.93</v>
       </c>
       <c r="H5" t="n">
-        <v>6944.9</v>
+        <v>6947.14</v>
       </c>
       <c r="I5" t="n">
-        <v>6937.57</v>
+        <v>6949.63</v>
       </c>
       <c r="J5" t="n">
-        <v>6952.37</v>
+        <v>6950.09</v>
       </c>
       <c r="K5" t="n">
-        <v>6935.93</v>
+        <v>6946.14</v>
       </c>
       <c r="L5" t="n">
-        <v>6939.56</v>
+        <v>6937.23</v>
       </c>
       <c r="M5" t="n">
-        <v>6938.58</v>
-      </c>
+        <v>6937.79</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6943.17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6937.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6938.25</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>347109.59</v>
-      </c>
+          <t>Balanz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>346862.9</v>
+        <v>594210.6</v>
       </c>
       <c r="E6" t="n">
-        <v>347699.54</v>
+        <v>846499.41</v>
       </c>
       <c r="F6" t="n">
-        <v>347469.12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>346777.72</v>
-      </c>
-      <c r="H6" t="n">
-        <v>347143.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>347063.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>347191.82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>346807.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>348073.87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>347050.63</v>
-      </c>
+        <v>724268.4399999999</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35692.54</v>
+        <v>347050.63</v>
       </c>
       <c r="C7" t="n">
-        <v>31152.26</v>
+        <v>346918.21</v>
       </c>
       <c r="D7" t="n">
-        <v>31186.19</v>
+        <v>376307.58</v>
       </c>
       <c r="E7" t="n">
-        <v>31264.57</v>
+        <v>347607.65</v>
       </c>
       <c r="F7" t="n">
-        <v>31061.63</v>
+        <v>346881.72</v>
       </c>
       <c r="G7" t="n">
-        <v>31089.3</v>
+        <v>347358.76</v>
       </c>
       <c r="H7" t="n">
-        <v>30152.58</v>
+        <v>347632.71</v>
       </c>
       <c r="I7" t="n">
-        <v>19784.96</v>
+        <v>347213.87</v>
       </c>
       <c r="J7" t="n">
-        <v>19331.89</v>
+        <v>347497.25</v>
       </c>
       <c r="K7" t="n">
-        <v>19251.02</v>
+        <v>347676.98</v>
       </c>
       <c r="L7" t="n">
-        <v>9987.32</v>
+        <v>347742.8</v>
       </c>
       <c r="M7" t="n">
-        <v>10001.33</v>
+        <v>347073.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>347197.53</v>
+      </c>
+      <c r="O7" t="n">
+        <v>347076.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>347217.78</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>346944.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>347496.49</v>
+      </c>
+      <c r="S7" t="n">
+        <v>348119.28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>347945.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>346588.17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>347270.53</v>
+      </c>
+      <c r="W7" t="n">
+        <v>347171.57</v>
+      </c>
+      <c r="X7" t="n">
+        <v>347143.24</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>347364.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>347441.88</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>347370.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10001.33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9773.879999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10811.18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9353.440000000001</v>
+      </c>
       <c r="F8" t="n">
-        <v>147805.71</v>
+        <v>9518.18</v>
       </c>
       <c r="G8" t="n">
-        <v>157222.32</v>
+        <v>9804.25</v>
       </c>
       <c r="H8" t="n">
-        <v>172140.28</v>
+        <v>9539.540000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>176152.62</v>
+        <v>9786.83</v>
       </c>
       <c r="J8" t="n">
-        <v>380750.5</v>
+        <v>9491.370000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>412921.77</v>
+        <v>9835.17</v>
       </c>
       <c r="L8" t="n">
-        <v>282474.35</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>9395.24</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9606.77</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9998.610000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9349.43</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9855.540000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9904.790000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9683.940000000001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9460.42</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9487.16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9562.92</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9632.370000000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9466.67</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9259.719999999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9409.93</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9667.719999999999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9785.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -789,40 +973,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4136169.54</v>
+        <v>3901343.7</v>
       </c>
       <c r="C9" t="n">
-        <v>3681489.38</v>
+        <v>1992653.99</v>
       </c>
       <c r="D9" t="n">
-        <v>3269461.14</v>
+        <v>1692131.07</v>
       </c>
       <c r="E9" t="n">
-        <v>3368529.8</v>
+        <v>722570.1800000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2983607.26</v>
+        <v>443607.77</v>
       </c>
       <c r="G9" t="n">
-        <v>3171503.56</v>
+        <v>121366.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3464184.18</v>
+        <v>121373.13</v>
       </c>
       <c r="I9" t="n">
-        <v>3019651.05</v>
+        <v>121316.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3004703.11</v>
+        <v>121312.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3265530.4</v>
+        <v>121486.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3335870.34</v>
+        <v>121358.42</v>
       </c>
       <c r="M9" t="n">
-        <v>3901343.7</v>
+        <v>121205.86</v>
+      </c>
+      <c r="N9" t="n">
+        <v>121379.77</v>
+      </c>
+      <c r="O9" t="n">
+        <v>121120.88</v>
+      </c>
+      <c r="P9" t="n">
+        <v>121337.19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>178424.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>178590.21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>178789.85</v>
+      </c>
+      <c r="T9" t="n">
+        <v>178716.43</v>
+      </c>
+      <c r="U9" t="n">
+        <v>178075.55</v>
+      </c>
+      <c r="V9" t="n">
+        <v>178451.45</v>
+      </c>
+      <c r="W9" t="n">
+        <v>178319.12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>178201.48</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>178387.27</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>178554.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>178578.11</v>
       </c>
     </row>
     <row r="10">
@@ -832,40 +1058,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20680847.72</v>
+        <v>23408062.21</v>
       </c>
       <c r="C10" t="n">
-        <v>18407446.9</v>
+        <v>11955923.94</v>
       </c>
       <c r="D10" t="n">
-        <v>19616766.86</v>
+        <v>11844917.51</v>
       </c>
       <c r="E10" t="n">
-        <v>20211178.78</v>
+        <v>5057991.25</v>
       </c>
       <c r="F10" t="n">
-        <v>20885250.79</v>
+        <v>3105254.39</v>
       </c>
       <c r="G10" t="n">
-        <v>22200524.92</v>
+        <v>364099.94</v>
       </c>
       <c r="H10" t="n">
-        <v>24249289.29</v>
+        <v>364119.39</v>
       </c>
       <c r="I10" t="n">
-        <v>21137557.37</v>
+        <v>363950.33</v>
       </c>
       <c r="J10" t="n">
-        <v>21032921.8</v>
+        <v>363938.71</v>
       </c>
       <c r="K10" t="n">
-        <v>22858712.78</v>
+        <v>364458.29</v>
       </c>
       <c r="L10" t="n">
-        <v>23351092.4</v>
+        <v>364075.27</v>
       </c>
       <c r="M10" t="n">
-        <v>23408062.21</v>
+        <v>363617.59</v>
+      </c>
+      <c r="N10" t="n">
+        <v>364139.31</v>
+      </c>
+      <c r="O10" t="n">
+        <v>363362.63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>364011.57</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>356849.59</v>
+      </c>
+      <c r="R10" t="n">
+        <v>357180.43</v>
+      </c>
+      <c r="S10" t="n">
+        <v>357579.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>357432.86</v>
+      </c>
+      <c r="U10" t="n">
+        <v>356151.09</v>
+      </c>
+      <c r="V10" t="n">
+        <v>356902.9</v>
+      </c>
+      <c r="W10" t="n">
+        <v>356638.24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>356402.96</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>356774.53</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>357109.6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>357156.23</v>
       </c>
     </row>
   </sheetData>
